--- a/document/Documents/CMA_Report/Report2_SWP490-G23_Clinic Management Application_High Level Project Schedule.xlsx
+++ b/document/Documents/CMA_Report/Report2_SWP490-G23_Clinic Management Application_High Level Project Schedule.xlsx
@@ -45,7 +45,7 @@
     <t>All</t>
   </si>
   <si>
-    <t xml:space="preserve">   Initiating Phase</t>
+    <t xml:space="preserve">   Initiation Phase</t>
   </si>
   <si>
     <t xml:space="preserve">      Register Capstone Project</t>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">      Complete Initiating Stage</t>
   </si>
   <si>
-    <t xml:space="preserve">   Planning</t>
+    <t xml:space="preserve">   Planning Phase</t>
   </si>
   <si>
     <t xml:space="preserve">      Define scope</t>
@@ -111,10 +111,10 @@
     <t xml:space="preserve">      Complete planning stage</t>
   </si>
   <si>
-    <t xml:space="preserve">   Execution</t>
-  </si>
-  <si>
-    <t>Interation 1:</t>
+    <t xml:space="preserve">   Execution Phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Iteration 1:</t>
   </si>
   <si>
     <t xml:space="preserve">      Analysis</t>
@@ -210,7 +210,7 @@
     <t xml:space="preserve">        Implement report 5</t>
   </si>
   <si>
-    <t>Interation 2:</t>
+    <t xml:space="preserve">     Iteration 2:</t>
   </si>
   <si>
     <t>TrangNT &amp; ThienND &amp; DucDT</t>
@@ -249,7 +249,7 @@
     <t xml:space="preserve">        Deploy server</t>
   </si>
   <si>
-    <t xml:space="preserve">   Closure</t>
+    <t xml:space="preserve">   Closure Phase</t>
   </si>
   <si>
     <t xml:space="preserve">     Review all contracts and documentation</t>
@@ -275,10 +275,20 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -288,15 +298,23 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="16.0"/>
       <color rgb="FF136196"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -311,8 +329,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor rgb="FF8EA9DB"/>
+        <fgColor rgb="FF1155CC"/>
+        <bgColor rgb="FF1155CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -374,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -387,76 +405,83 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -669,6 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -676,10 +702,10 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0" outlineLevelRow="2"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="4.86"/>
-    <col customWidth="1" min="2" max="2" width="10.57"/>
+    <col customWidth="1" min="2" max="2" width="9.71"/>
     <col customWidth="1" min="3" max="3" width="45.29"/>
     <col customWidth="1" min="4" max="6" width="14.43"/>
     <col customWidth="1" min="7" max="7" width="27.71"/>
@@ -765,178 +791,197 @@
       <c r="E3" s="6">
         <v>44088.0</v>
       </c>
-      <c r="F3" s="6">
-        <v>44107.0</v>
+      <c r="F3" s="10">
+        <v>44097.0</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A4" s="4">
         <v>3.0</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>0.5</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="14">
         <v>44088.0</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="14">
         <v>44088.0</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+      <c r="G4" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A5" s="4">
         <v>4.0</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>0.5</v>
       </c>
-      <c r="E5" s="12">
-        <v>44089.0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>44089.0</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+      <c r="E5" s="16">
+        <v>44088.0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>44088.0</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A6" s="4">
         <v>5.0</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="13">
         <v>1.0</v>
       </c>
-      <c r="E6" s="12">
-        <v>44090.0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>44091.0</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+      <c r="E6" s="16">
+        <v>44089.0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>44089.0</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A7" s="4">
         <v>6.0</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>1.0</v>
       </c>
-      <c r="E7" s="12">
-        <v>44092.0</v>
-      </c>
-      <c r="F7" s="12">
-        <v>44095.0</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+      <c r="E7" s="16">
+        <v>44090.0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>44090.0</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A8" s="4">
         <v>7.0</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="15">
         <v>1.0</v>
       </c>
-      <c r="E8" s="12">
-        <v>44096.0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>44096.0</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+      <c r="E8" s="16">
+        <v>44091.0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>44091.0</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A9" s="4">
         <v>8.0</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="13">
         <v>2.0</v>
       </c>
-      <c r="E9" s="12">
-        <v>44097.0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>44103.0</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="E9" s="16">
+        <v>44092.0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>44093.0</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A10" s="4">
         <v>9.0</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="13">
         <v>2.0</v>
       </c>
-      <c r="E10" s="12">
-        <v>44104.0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>44106.0</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+      <c r="E10" s="16">
+        <v>44094.0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>44125.0</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A11" s="4">
         <v>10.0</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>0.5</v>
       </c>
-      <c r="E11" s="12">
-        <v>44107.0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>44107.0</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="E11" s="16">
+        <v>44127.0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>44127.0</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -952,202 +997,221 @@
         <f>SUM(D13:D21)</f>
         <v>9</v>
       </c>
-      <c r="E12" s="6">
-        <v>44108.0</v>
-      </c>
-      <c r="F12" s="15">
-        <v>44122.0</v>
+      <c r="E12" s="10">
+        <v>44097.0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>44106.0</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="16">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A13" s="18">
         <v>12.0</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="21">
         <v>1.0</v>
       </c>
-      <c r="E13" s="12">
-        <v>44108.0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>44108.0</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+      <c r="E13" s="16">
+        <v>44097.0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>44097.0</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A14" s="4">
         <v>13.0</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="15">
         <v>1.0</v>
       </c>
-      <c r="E14" s="12">
-        <v>44109.0</v>
-      </c>
-      <c r="F14" s="12">
-        <v>44109.0</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+      <c r="E14" s="16">
+        <v>44098.0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>44098.0</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A15" s="4">
         <v>14.0</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="15">
         <v>1.0</v>
       </c>
-      <c r="E15" s="12">
-        <v>44110.0</v>
-      </c>
-      <c r="F15" s="12">
-        <v>44110.0</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="E15" s="16">
+        <v>44099.0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>44099.0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A16" s="4">
         <v>15.0</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="13">
         <v>1.0</v>
       </c>
-      <c r="E16" s="12">
-        <v>44111.0</v>
-      </c>
-      <c r="F16" s="12">
-        <v>44112.0</v>
-      </c>
-      <c r="G16" s="13" t="s">
+      <c r="E16" s="16">
+        <v>44100.0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>44100.0</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A17" s="4">
         <v>16.0</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="13">
         <v>1.0</v>
       </c>
-      <c r="E17" s="12">
-        <v>44113.0</v>
-      </c>
-      <c r="F17" s="12">
-        <v>44114.0</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="E17" s="16">
+        <v>44101.0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>44101.0</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A18" s="4">
         <v>17.0</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="15">
         <v>1.0</v>
       </c>
-      <c r="E18" s="12">
-        <v>44115.0</v>
-      </c>
-      <c r="F18" s="12">
-        <v>44115.0</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+      <c r="E18" s="16">
+        <v>44102.0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>44102.0</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A19" s="4">
         <v>18.0</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="13">
         <v>1.0</v>
       </c>
-      <c r="E19" s="12">
-        <v>44116.0</v>
-      </c>
-      <c r="F19" s="12">
-        <v>44120.0</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="E19" s="16">
+        <v>44103.0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>44103.0</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A20" s="4">
         <v>19.0</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="15">
         <v>1.0</v>
       </c>
-      <c r="E20" s="12">
-        <v>44121.0</v>
-      </c>
-      <c r="F20" s="12">
-        <v>44121.0</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="E20" s="16">
+        <v>44104.0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>44104.0</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A21" s="4">
         <v>20.0</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="15">
         <v>1.0</v>
       </c>
-      <c r="E21" s="12">
-        <v>44122.0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>44122.0</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="E21" s="16">
+        <v>44075.0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>44106.0</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1163,885 +1227,942 @@
         <f>SUM(D23,D51)</f>
         <v>80</v>
       </c>
-      <c r="E22" s="15">
-        <v>44123.0</v>
+      <c r="E22" s="7">
+        <v>44106.0</v>
       </c>
       <c r="F22" s="7">
-        <v>44116.0</v>
+        <v>44186.0</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A23" s="4">
         <v>22.0</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="4">
         <f>SUM(D24,D33,D40,D46)</f>
         <v>41.5</v>
       </c>
-      <c r="E23" s="15">
-        <v>44124.0</v>
-      </c>
-      <c r="F23" s="15">
-        <v>44125.0</v>
+      <c r="E23" s="7">
+        <v>44106.0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>44148.0</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A24" s="4">
         <v>23.0</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="15">
         <f>SUM(D25:D32)</f>
         <v>7</v>
       </c>
-      <c r="E24" s="15">
-        <v>44123.0</v>
-      </c>
-      <c r="F24" s="15">
-        <v>44130.0</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+      <c r="E24" s="24">
+        <v>44106.0</v>
+      </c>
+      <c r="F24" s="24">
+        <v>44113.0</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A25" s="4">
         <v>24.0</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="15">
         <v>0.5</v>
       </c>
-      <c r="E25" s="21">
-        <v>44123.0</v>
-      </c>
-      <c r="F25" s="21">
-        <v>44123.0</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+      <c r="E25" s="24">
+        <v>44106.0</v>
+      </c>
+      <c r="F25" s="24">
+        <v>44106.0</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A26" s="4">
         <v>25.0</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="15">
         <v>0.5</v>
       </c>
-      <c r="E26" s="21">
-        <v>44123.0</v>
-      </c>
-      <c r="F26" s="21">
-        <v>44123.0</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+      <c r="E26" s="24">
+        <v>44106.0</v>
+      </c>
+      <c r="F26" s="24">
+        <v>44106.0</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A27" s="4">
         <v>26.0</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="15">
         <v>0.5</v>
       </c>
-      <c r="E27" s="21">
-        <v>44124.0</v>
-      </c>
-      <c r="F27" s="21">
-        <v>44124.0</v>
-      </c>
-      <c r="G27" s="13" t="s">
+      <c r="E27" s="24">
+        <v>44107.0</v>
+      </c>
+      <c r="F27" s="24">
+        <v>44107.0</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A28" s="4">
         <v>27.0</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="15">
         <v>0.5</v>
       </c>
-      <c r="E28" s="21">
-        <v>44124.0</v>
-      </c>
-      <c r="F28" s="21">
-        <v>44124.0</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+      <c r="E28" s="24">
+        <v>44107.0</v>
+      </c>
+      <c r="F28" s="24">
+        <v>44107.0</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A29" s="4">
         <v>28.0</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="15">
         <v>0.5</v>
       </c>
-      <c r="E29" s="21">
-        <v>44125.0</v>
-      </c>
-      <c r="F29" s="21">
-        <v>44125.0</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+      <c r="E29" s="24">
+        <v>44108.0</v>
+      </c>
+      <c r="F29" s="24">
+        <v>44108.0</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A30" s="4">
         <v>29.0</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="15">
         <v>0.5</v>
       </c>
-      <c r="E30" s="21">
-        <v>44125.0</v>
-      </c>
-      <c r="F30" s="21">
-        <v>44125.0</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="E30" s="24">
+        <v>44108.0</v>
+      </c>
+      <c r="F30" s="24">
+        <v>44108.0</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A31" s="4">
         <v>30.0</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="13">
         <v>2.0</v>
       </c>
-      <c r="E31" s="21">
-        <v>44126.0</v>
-      </c>
-      <c r="F31" s="21">
-        <v>44129.0</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+      <c r="E31" s="24">
+        <v>44109.0</v>
+      </c>
+      <c r="F31" s="24">
+        <v>44111.0</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A32" s="4">
         <v>31.0</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="13">
         <v>2.0</v>
       </c>
-      <c r="E32" s="21">
-        <v>44130.0</v>
-      </c>
-      <c r="F32" s="21">
-        <v>44130.0</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+      <c r="E32" s="24">
+        <v>44111.0</v>
+      </c>
+      <c r="F32" s="24">
+        <v>44113.0</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A33" s="4">
         <v>32.0</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="15">
         <f>SUM(D34:D39)</f>
         <v>3.5</v>
       </c>
-      <c r="E33" s="15">
-        <v>44131.0</v>
-      </c>
-      <c r="F33" s="15">
-        <v>44137.0</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+      <c r="E33" s="24">
+        <v>44113.0</v>
+      </c>
+      <c r="F33" s="24">
+        <v>44117.0</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A34" s="4">
         <v>33.0</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="15">
         <v>0.5</v>
       </c>
-      <c r="E34" s="21">
-        <v>44131.0</v>
-      </c>
-      <c r="F34" s="21">
-        <v>44131.0</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+      <c r="E34" s="24">
+        <v>44113.0</v>
+      </c>
+      <c r="F34" s="24">
+        <v>44113.0</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A35" s="4">
         <v>34.0</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="15">
         <v>0.5</v>
       </c>
-      <c r="E35" s="21">
-        <v>44131.0</v>
-      </c>
-      <c r="F35" s="21">
-        <v>44131.0</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+      <c r="E35" s="24">
+        <v>44113.0</v>
+      </c>
+      <c r="F35" s="24">
+        <v>44113.0</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A36" s="4">
         <v>35.0</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="15">
         <v>0.5</v>
       </c>
-      <c r="E36" s="21">
-        <v>44132.0</v>
-      </c>
-      <c r="F36" s="21">
-        <v>44132.0</v>
-      </c>
-      <c r="G36" s="13" t="s">
+      <c r="E36" s="24">
+        <v>44114.0</v>
+      </c>
+      <c r="F36" s="24">
+        <v>44114.0</v>
+      </c>
+      <c r="G36" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A37" s="4">
         <v>36.0</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="15">
         <v>0.5</v>
       </c>
-      <c r="E37" s="21">
-        <v>44132.0</v>
-      </c>
-      <c r="F37" s="21">
-        <v>44132.0</v>
-      </c>
-      <c r="G37" s="13" t="s">
+      <c r="E37" s="24">
+        <v>44114.0</v>
+      </c>
+      <c r="F37" s="24">
+        <v>44114.0</v>
+      </c>
+      <c r="G37" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A38" s="4">
         <v>37.0</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="13">
         <v>0.5</v>
       </c>
-      <c r="E38" s="21">
-        <v>44133.0</v>
-      </c>
-      <c r="F38" s="21">
-        <v>44133.0</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+      <c r="E38" s="24">
+        <v>44115.0</v>
+      </c>
+      <c r="F38" s="24">
+        <v>44115.0</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A39" s="4">
         <v>38.0</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="13">
         <v>1.0</v>
       </c>
-      <c r="E39" s="21">
-        <v>44134.0</v>
-      </c>
-      <c r="F39" s="12">
-        <v>44137.0</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+      <c r="E39" s="24">
+        <v>44116.0</v>
+      </c>
+      <c r="F39" s="16">
+        <v>44117.0</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A40" s="4">
         <v>39.0</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="15">
         <f>SUM(D41:D45)</f>
         <v>23</v>
       </c>
-      <c r="E40" s="6">
-        <v>44138.0</v>
-      </c>
-      <c r="F40" s="6">
-        <v>44168.0</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+      <c r="E40" s="16">
+        <v>44117.0</v>
+      </c>
+      <c r="F40" s="16">
+        <v>44140.0</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A41" s="4">
         <v>40.0</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="13">
         <v>3.0</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="14">
         <v>44138.0</v>
       </c>
-      <c r="F41" s="12">
-        <v>44144.0</v>
-      </c>
-      <c r="G41" s="13" t="s">
+      <c r="F41" s="16">
+        <v>44141.0</v>
+      </c>
+      <c r="G41" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A42" s="4">
         <v>41.0</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="13">
         <v>4.0</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="24">
+        <v>44141.0</v>
+      </c>
+      <c r="F42" s="24">
         <v>44145.0</v>
       </c>
-      <c r="F42" s="21">
-        <v>44151.0</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+      <c r="G42" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A43" s="4">
         <v>42.0</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="13">
         <v>14.0</v>
       </c>
-      <c r="E43" s="21">
-        <v>44152.0</v>
-      </c>
-      <c r="F43" s="21">
-        <v>44158.0</v>
-      </c>
-      <c r="G43" s="13" t="s">
+      <c r="E43" s="24">
+        <v>44145.0</v>
+      </c>
+      <c r="F43" s="24">
+        <v>44159.0</v>
+      </c>
+      <c r="G43" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A44" s="4">
         <v>43.0</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="13">
         <v>1.0</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="24">
         <v>44159.0</v>
       </c>
-      <c r="F44" s="21">
-        <v>44162.0</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+      <c r="F44" s="24">
+        <v>44159.0</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A45" s="4">
         <v>44.0</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="13">
         <v>1.0</v>
       </c>
-      <c r="E45" s="21">
-        <v>44163.0</v>
-      </c>
-      <c r="F45" s="21">
-        <v>44168.0</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+      <c r="E45" s="24">
+        <v>44160.0</v>
+      </c>
+      <c r="F45" s="24">
+        <v>44160.0</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A46" s="4">
         <v>45.0</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="15">
         <f>SUM(D47:D50)</f>
         <v>8</v>
       </c>
-      <c r="E46" s="6">
-        <v>44169.0</v>
-      </c>
-      <c r="F46" s="15">
-        <v>44184.0</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+      <c r="E46" s="16">
+        <v>44140.0</v>
+      </c>
+      <c r="F46" s="24">
+        <v>44147.0</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A47" s="4">
         <v>46.0</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="13">
         <v>1.0</v>
       </c>
-      <c r="E47" s="12">
-        <v>44169.0</v>
-      </c>
-      <c r="F47" s="12">
-        <v>44171.0</v>
-      </c>
-      <c r="G47" s="13" t="s">
+      <c r="E47" s="16">
+        <v>44140.0</v>
+      </c>
+      <c r="F47" s="16">
+        <v>44140.0</v>
+      </c>
+      <c r="G47" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A48" s="4">
         <v>47.0</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="13">
         <v>2.0</v>
       </c>
-      <c r="E48" s="12">
-        <v>44172.0</v>
-      </c>
-      <c r="F48" s="12">
-        <v>44174.0</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+      <c r="E48" s="16">
+        <v>44141.0</v>
+      </c>
+      <c r="F48" s="16">
+        <v>44143.0</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A49" s="4">
         <v>48.0</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="13">
         <v>3.0</v>
       </c>
-      <c r="E49" s="12">
-        <v>44173.0</v>
-      </c>
-      <c r="F49" s="12">
-        <v>44175.0</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+      <c r="E49" s="16">
+        <v>44143.0</v>
+      </c>
+      <c r="F49" s="16">
+        <v>44146.0</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" outlineLevel="2">
       <c r="A50" s="4">
         <v>49.0</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="13">
         <v>2.0</v>
       </c>
-      <c r="E50" s="12">
-        <v>44175.0</v>
-      </c>
-      <c r="F50" s="12">
-        <v>44176.0</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+      <c r="E50" s="16">
+        <v>44146.0</v>
+      </c>
+      <c r="F50" s="16">
+        <v>44147.0</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A51" s="4">
         <v>52.0</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="22" t="s">
         <v>64</v>
       </c>
       <c r="D51" s="4">
         <f>SUM(D52,D57,D62)</f>
         <v>38.5</v>
       </c>
-      <c r="E51" s="12">
-        <v>44176.0</v>
-      </c>
-      <c r="F51" s="12">
-        <v>44177.0</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+      <c r="E51" s="10">
+        <v>44148.0</v>
+      </c>
+      <c r="F51" s="10">
+        <v>44186.0</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+    </row>
+    <row r="52" ht="15.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A52" s="4">
         <v>53.0</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="15">
         <f>SUM(D53:D56)</f>
         <v>28.5</v>
       </c>
-      <c r="E52" s="12">
-        <v>44177.0</v>
-      </c>
-      <c r="F52" s="12">
-        <v>44178.0</v>
-      </c>
-      <c r="G52" s="11" t="s">
+      <c r="E52" s="16">
+        <v>44148.0</v>
+      </c>
+      <c r="F52" s="16">
+        <v>44176.0</v>
+      </c>
+      <c r="G52" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" ht="15.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A53" s="4">
         <v>54.0</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="13">
         <v>20.0</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="14">
         <v>44178.0</v>
       </c>
-      <c r="F53" s="12">
-        <v>44179.0</v>
-      </c>
-      <c r="G53" s="11" t="s">
+      <c r="F53" s="16">
+        <v>44168.0</v>
+      </c>
+      <c r="G53" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" ht="15.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A54" s="4">
         <v>55.0</v>
       </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="13">
         <v>4.0</v>
       </c>
-      <c r="E54" s="12">
-        <v>44179.0</v>
-      </c>
-      <c r="F54" s="12">
-        <v>44180.0</v>
-      </c>
-      <c r="G54" s="11" t="s">
+      <c r="E54" s="16">
+        <v>44168.0</v>
+      </c>
+      <c r="F54" s="16">
+        <v>44172.0</v>
+      </c>
+      <c r="G54" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" ht="15.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A55" s="4">
         <v>56.0</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="13">
         <v>4.0</v>
       </c>
-      <c r="E55" s="12">
-        <v>44180.0</v>
-      </c>
-      <c r="F55" s="12">
-        <v>44181.0</v>
-      </c>
-      <c r="G55" s="11" t="s">
+      <c r="E55" s="16">
+        <v>44172.0</v>
+      </c>
+      <c r="F55" s="16">
+        <v>44176.0</v>
+      </c>
+      <c r="G55" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" ht="15.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A56" s="4">
         <v>57.0</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="13">
         <v>0.5</v>
       </c>
-      <c r="E56" s="12">
-        <v>44181.0</v>
-      </c>
-      <c r="F56" s="12">
-        <v>44182.0</v>
-      </c>
-      <c r="G56" s="11" t="s">
+      <c r="E56" s="16">
+        <v>44176.0</v>
+      </c>
+      <c r="F56" s="16">
+        <v>44176.0</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" ht="15.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A57" s="4">
         <v>58.0</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="13">
         <v>9.0</v>
       </c>
-      <c r="E57" s="12">
-        <v>44182.0</v>
-      </c>
-      <c r="F57" s="12">
-        <v>44183.0</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+      <c r="E57" s="16">
+        <v>44176.0</v>
+      </c>
+      <c r="F57" s="16">
+        <v>44184.0</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A58" s="4">
         <v>59.0</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E58" s="12">
-        <v>44183.0</v>
-      </c>
-      <c r="F58" s="12">
-        <v>44184.0</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+      <c r="D58" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E58" s="16">
+        <v>44176.0</v>
+      </c>
+      <c r="F58" s="16">
+        <v>44179.0</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A59" s="4">
         <v>60.0</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E59" s="12">
-        <v>44184.0</v>
-      </c>
-      <c r="F59" s="12">
-        <v>44185.0</v>
-      </c>
-      <c r="G59" s="11" t="s">
+      <c r="D59" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E59" s="16">
+        <v>44179.0</v>
+      </c>
+      <c r="F59" s="16">
+        <v>44182.0</v>
+      </c>
+      <c r="G59" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A60" s="4">
         <v>61.0</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D60" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E60" s="12">
-        <v>44185.0</v>
-      </c>
-      <c r="F60" s="12">
-        <v>44186.0</v>
-      </c>
-      <c r="G60" s="11" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="E60" s="16">
+        <v>44182.0</v>
+      </c>
+      <c r="F60" s="16">
+        <v>44184.0</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A61" s="4">
         <v>62.0</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="E61" s="12">
-        <v>44186.0</v>
-      </c>
-      <c r="F61" s="12">
-        <v>44187.0</v>
-      </c>
-      <c r="G61" s="11" t="s">
+      <c r="D61" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E61" s="16">
+        <v>44184.0</v>
+      </c>
+      <c r="F61" s="16">
+        <v>44184.0</v>
+      </c>
+      <c r="G61" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" ht="15.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A62" s="4">
         <v>63.0</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="13">
         <v>1.0</v>
       </c>
-      <c r="E62" s="12">
-        <v>44187.0</v>
-      </c>
-      <c r="F62" s="12">
-        <v>44188.0</v>
-      </c>
-      <c r="G62" s="13" t="s">
+      <c r="E62" s="16">
+        <v>44185.0</v>
+      </c>
+      <c r="F62" s="16">
+        <v>44186.0</v>
+      </c>
+      <c r="G62" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A63" s="4">
         <v>64.0</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="13">
         <v>1.0</v>
       </c>
-      <c r="E63" s="12">
-        <v>44188.0</v>
-      </c>
-      <c r="F63" s="12">
-        <v>44189.0</v>
-      </c>
-      <c r="G63" s="13" t="s">
+      <c r="E63" s="16">
+        <v>44185.0</v>
+      </c>
+      <c r="F63" s="16">
+        <v>44186.0</v>
+      </c>
+      <c r="G63" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1" collapsed="1">
       <c r="A64" s="4">
         <v>65.0</v>
       </c>
@@ -2053,8 +2174,8 @@
         <f>SUM(D65:D69)</f>
         <v>9.5</v>
       </c>
-      <c r="E64" s="15">
-        <v>44187.0</v>
+      <c r="E64" s="7">
+        <v>44186.0</v>
       </c>
       <c r="F64" s="7">
         <v>44195.0</v>
@@ -2062,109 +2183,128 @@
       <c r="G64" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+    </row>
+    <row r="65" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A65" s="4">
         <v>66.0</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="15">
         <v>3.0</v>
       </c>
-      <c r="E65" s="21">
-        <v>44187.0</v>
-      </c>
-      <c r="F65" s="21">
+      <c r="E65" s="24">
+        <v>44186.0</v>
+      </c>
+      <c r="F65" s="24">
         <v>44189.0</v>
       </c>
-      <c r="G65" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+      <c r="G65" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A66" s="4">
         <v>67.0</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="13">
         <v>1.0</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="24">
         <v>44190.0</v>
       </c>
-      <c r="F66" s="21">
-        <v>44191.0</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+      <c r="F66" s="24">
+        <v>44190.0</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A67" s="4">
         <v>68.0</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="15">
         <v>1.0</v>
       </c>
-      <c r="E67" s="21">
-        <v>44192.0</v>
-      </c>
-      <c r="F67" s="21">
-        <v>44192.0</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+      <c r="E67" s="24">
+        <v>44191.0</v>
+      </c>
+      <c r="F67" s="24">
+        <v>44191.0</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A68" s="4">
         <v>69.0</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="13">
         <v>4.0</v>
       </c>
-      <c r="E68" s="21">
-        <v>44193.0</v>
-      </c>
-      <c r="F68" s="21">
+      <c r="E68" s="24">
+        <v>44191.0</v>
+      </c>
+      <c r="F68" s="24">
+        <v>44194.0</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A69" s="26">
+        <v>70.0</v>
+      </c>
+      <c r="B69" s="26"/>
+      <c r="C69" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="29">
         <v>44195.0</v>
       </c>
-      <c r="G68" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="23">
-        <v>70.0</v>
-      </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="E69" s="26">
-        <v>44190.0</v>
-      </c>
-      <c r="F69" s="26">
-        <v>44190.0</v>
-      </c>
-      <c r="G69" s="27" t="s">
+      <c r="F69" s="29">
+        <v>44195.0</v>
+      </c>
+      <c r="G69" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3109,6 +3249,9 @@
     <row r="1008" ht="15.75" customHeight="1"/>
     <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>